--- a/logs personales rafael/log personales.xlsx
+++ b/logs personales rafael/log personales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\logs personales rafael\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\App\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76FB6A-DC7F-410A-B958-6C7785C703CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A5A61-FBA0-49C7-BA29-E7F91EEF7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15585" yWindow="-600" windowWidth="15120" windowHeight="11625" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>9:00 - 18:00</t>
+  </si>
+  <si>
+    <t>continue work on the program Functions and sign up page aswell as main page, create of query  to be used for search, to stay logged in, update information and redirect to other pages if there are error</t>
+  </si>
+  <si>
+    <t>documentaton of all functiong currently on the program</t>
+  </si>
+  <si>
+    <t>12:00 - 15:00</t>
   </si>
 </sst>
 </file>
@@ -194,52 +203,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,21 +586,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,241 +613,261 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>45313</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>45315</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>45317</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>45324</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>45325</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>45327</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>45329</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>45334</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>45338</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>45339</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>45341</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>45345</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>45353</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>45355</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>45359</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>45361</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>45362</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="13">
         <f>SUM(D3:D39)</f>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
